--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_2.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDABEB4-2385-4265-9C57-BB60022CD0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7333FB-BB83-48B4-BF90-EA83CD15BFEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Weiterführung des Statusprotokolls</t>
+  </si>
+  <si>
+    <t>Recherche für Erweiterungen</t>
+  </si>
+  <si>
+    <t>Implementierung von Erweiterungen im Frontend</t>
+  </si>
+  <si>
+    <t>Änderung der Datenstruktur im Frontend</t>
+  </si>
+  <si>
+    <t>Fixing der Forms für das Mitarbeiterupdate</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,21 +501,33 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="2">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
       <c r="C13">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14">
         <v>2</v>
       </c>
